--- a/resultados_teste.xlsx
+++ b/resultados_teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>Texto</t>
   </si>
@@ -49,13 +49,37 @@
     <t>Deffuzy</t>
   </si>
   <si>
-    <t>Antiviral para hepatite C atua contra febre amarela e chikungunya.txt</t>
-  </si>
-  <si>
-    <t>Bactéria causadora da meningite e pneumonia terá o genoma sequenciado.txt</t>
-  </si>
-  <si>
-    <t>Brasil usa vírus da gripe e bactérias para criar vacina contra covid-19 .txt</t>
+    <t>10 razões pelas quais não deveria vacinar seu filho.txt</t>
+  </si>
+  <si>
+    <t>Aftas são a causa do câncer.txt</t>
+  </si>
+  <si>
+    <t>Alimentos alcalinos evitam coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Ar condicionado e o benzeno.txt</t>
+  </si>
+  <si>
+    <t>Aspartame causa esclerose múltipla e lúpus.txt</t>
+  </si>
+  <si>
+    <t>Associação Americana e causas do câncer.txt</t>
+  </si>
+  <si>
+    <t>Banho frio e desmaios.txt</t>
+  </si>
+  <si>
+    <t>Beber água antes de pintar o cabelo.txt</t>
+  </si>
+  <si>
+    <t>Beber água de 15 em 15 minutos cura o coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Beber água de estômago vazio faz bem à saúde e mais do que isso cura doenças inclusive o câncer.txt</t>
+  </si>
+  <si>
+    <t>Besouros que causam cegueira.txt</t>
   </si>
   <si>
     <t>Café previne o coronavírus.txt</t>
@@ -64,112 +88,277 @@
     <t>Chá de erva doce e o tratamento do novo coronavírus.txt</t>
   </si>
   <si>
+    <t>Chá de limão com bicarbonato quente cura coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Cloroquina e hidroxicloroquina passam a ser usadas no Brasil para combater coronavírus.txt</t>
+  </si>
+  <si>
     <t>Consumo de Skol e problemas renais ou câncer.txt</t>
   </si>
   <si>
-    <t>Coronavírus as mutações do Sars-Cov-2 que intrigam cientistas.txt</t>
-  </si>
-  <si>
-    <t>Dengue na gravidez pode causar má-formação do cérebro do bebê.txt</t>
-  </si>
-  <si>
-    <t>Dengue pode representar um risco à vida do feto, alerta pesquisa.txt</t>
+    <t>Consumo de fanta e coca e problemas renais ou câncer.txt</t>
+  </si>
+  <si>
+    <t>Coronavírus morre a 26º C.txt</t>
+  </si>
+  <si>
+    <t>Covid-19 significa Certificado de Identificação de Vacina com Inteligência Artificial e vacina servirá para monitorar a população.txt</t>
+  </si>
+  <si>
+    <t>Cura do câncer.txt</t>
+  </si>
+  <si>
+    <t>Câncer é deficiência da vitamina B17.txt</t>
+  </si>
+  <si>
+    <t>Efeitos da glândula da próstata.txt</t>
+  </si>
+  <si>
+    <t>Equinócio e altas temperaturas.txt</t>
+  </si>
+  <si>
+    <t>Fenilpropalamina em medicamentos.txt</t>
+  </si>
+  <si>
+    <t>Gelo causa câncer.txt</t>
+  </si>
+  <si>
+    <t>História sobre o arroz Dana estar contaminado por um vírus.txt</t>
+  </si>
+  <si>
+    <t>Itália foi a cura do coronavírus ao descobrir que é uma bactéria que causa as mortes.txt</t>
+  </si>
+  <si>
+    <t>Limonada quente cura o câncer.txt</t>
   </si>
   <si>
     <t>Limão no copo mata.txt</t>
   </si>
   <si>
-    <t>Ministério da Saúde antecipa vacinação contra Influenza para os Povos Indígenas.txt</t>
-  </si>
-  <si>
-    <t>Ministério da Saúde habilita mais 92 leitos para combate ao coronavírus.txt</t>
-  </si>
-  <si>
-    <t>Pandemia interrompe tratamentos de hipertensão e diabetes.txt</t>
-  </si>
-  <si>
-    <t>Senado aprova uso obrigatório de máscara em todo o País texto volta para Câmara.txt</t>
+    <t>Notificação emergencial do Ministério da Saúde sobre novo coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Nova doença.txt</t>
+  </si>
+  <si>
+    <t>Ondas radioativas do microondas causam danos à saúde.txt</t>
+  </si>
+  <si>
+    <t>Quiabo cura diabetes.txt</t>
+  </si>
+  <si>
+    <t>Situação fora de controle novo coronavírus.txt</t>
   </si>
   <si>
     <t>Tomar ou bebidas quentes para matar o coronavírus.txt</t>
   </si>
   <si>
+    <t>Tossir evita infarto.txt</t>
+  </si>
+  <si>
     <t>Tratamento de queimaduras com farinha de trigo.txt</t>
   </si>
   <si>
-    <t>Tratamento para coronavírus 'pista' imunológica traz esperança na luta contra a covid-19.txt</t>
-  </si>
-  <si>
-    <t>UFMG e Fiocruz desenvolvem teste mais preciso e barato para covid-19.txt</t>
+    <t>Uso de celular na cozinha e acidentes.txt</t>
+  </si>
+  <si>
+    <t>Uso do celular no escuro e câncer de olho.txt</t>
+  </si>
+  <si>
+    <t>Uísque e mel contra coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Vacina anticâncer.txt</t>
   </si>
   <si>
     <t>Vacina chinesa contra Covid-19 é feita de fetos de bebês abortados.txt</t>
   </si>
   <si>
+    <t>Água gelada faz mal.txt</t>
+  </si>
+  <si>
+    <t>Água ou chá quente mata o coronavírus.txt</t>
+  </si>
+  <si>
+    <t>Água quente com abacaxi.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que Bill Gates financie vacina não líquida contra a Covid-19 que instala chip nas pessoas.txt</t>
+  </si>
+  <si>
     <t>É FAKE que Tasuku Honjo, Nobel de Medicina em 2018, disse que coronavírus foi criado por cientistas.txt</t>
   </si>
   <si>
-    <t>blanver, cdts, idor, bruning, chikungunya, sofosbuvir, ini, bmk, farmoquímica, fiocruz, plos, chemotehrapy, ioc, fármacos, liderados, diseases, neglected</t>
-  </si>
-  <si>
-    <t>funed, 9v, sorotipos, biotecnologia, 23f, 7f, pneumocócica, pneumonias, sireva, brgem, antimicrobianos, pcv10, bacterianas, genômicas, biossistemas, fiocruz, 19f, sequenciamento, antipneumococos, neoprospecta, cepas, prevalentes, genoma, meningites, 19a, neurogenômica, 18c, ioc, 6b, genômica</t>
-  </si>
-  <si>
-    <t>r7, imunogênica, vlps, incor, kalil, covid, causador, mers, desenvolem, transgênicos, neutralizantes, “, sucedida, fiocruz, particles, geneticamente</t>
-  </si>
-  <si>
-    <t>metilxantinas, theobromine, covid, methylxanthine, “, theophylline, wenliang</t>
-  </si>
-  <si>
-    <t>famíliares, nossso, infectologista, h1n1</t>
-  </si>
-  <si>
-    <t>tranqüila, voliteral, almeido, skol, fenofinol, “, ambev, fleury, socbrasde, conseqüente</t>
-  </si>
-  <si>
-    <t>pontinhas, d614g, ucl, covid, infecciosidade, coautora, cepas, dorp, genoma, genomas, —, françois, gravemente, gisaid, alamos, balloux</t>
-  </si>
-  <si>
-    <t>malformations, isc, controls, enny, microcefalia, reports, cidacs, lshtm, emerging, desfechos, fiocruz, diseases, neurologic</t>
-  </si>
-  <si>
-    <t>b19, sinasc, infectadas, isc, enny, sinan, symtomatic, cidacs, fiocruz, 500g</t>
-  </si>
-  <si>
-    <t>aconchegante, sacarovictus, libre, conservantes, cevabacillus, estabilizantes, humildemente, ativus, superdivertida, fatiados, ‘, contactei</t>
-  </si>
-  <si>
-    <t>hospitalizações, h3n2, vulnerabilidade, covid, pdm09, h1n1, “, imunizados, aldeados, dsei</t>
-  </si>
-  <si>
-    <t>covid, enfrentamento, gestores, subsidiarão, pediátricos</t>
-  </si>
-  <si>
-    <t>coletadas, cardiovasculares, planejadas, covid, adhanom, tedros, dcnts, investigados, —, 1º, ghebreyesus</t>
-  </si>
-  <si>
-    <t>artesanalmente, covid, economicamente, prisionais</t>
-  </si>
-  <si>
-    <t>trombose, cardiovasculares, desinfecte, °, shenzhen, drsse, puxadores, polmonite, castello, desinfetante, cátaros</t>
-  </si>
-  <si>
-    <t>antioxidantes, reencaminhado</t>
-  </si>
-  <si>
-    <t>microlitro, covid, drasticamente, kings, hayday, interleucina, guys, —, interage, shankar, encorajador</t>
-  </si>
-  <si>
-    <t>viroses, imunoabsorção, funed, linked, immunosorbent, polymerase, covid, pequisadores, fapemig, completoo, anvisa, fiocruz, santuza, reaction</t>
-  </si>
-  <si>
-    <t>mirabolantes, contêm, cirurgias, covid, institucionalizado, frustrante, “</t>
+    <t>É FAKE que governo americano libera consumo de colesterol e afirma que excesso não faz mal à saúde.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que pesquisa mostra que vapor de eucalipto protege ambientes do coronavírus.txt</t>
+  </si>
+  <si>
+    <t>É FAKE que tomar própolis repele mosquito da febre amarela.txt</t>
+  </si>
+  <si>
+    <t>É#FAKE que uso prolongado de máscara contra o coronavírus leva a quadro de intoxicação e baixa oxigenação do organismo.txt</t>
+  </si>
+  <si>
+    <t>Óleo no umbigo cura doenças.txt</t>
+  </si>
+  <si>
+    <t>triplice, ogms, unvaccinated, injury, rentáveis, imunocomprometidas, geneticamente, gms, empurradores, contêm, diseases, placebos, recommended, “, patrocinados, healthier, reactions, eficazmente, vaers, updated, reasons, gardasil, vaxtruth, lesadas, responsabilizadas, ingredients, comprovadamente, mandates, tetyana, anvisa, saudáveis​​, —, reorientar, transgênicos, says, sanevax, nutrientes, defending, sites, related, sgb, nauseam, obukhanych, adjuvantes, origins, ​​e, afligidos, ​​em, vactruth, vactruthcom, vaccines, higher, parents, studies, vaccinated, conservantes, firms, pharma</t>
+  </si>
+  <si>
+    <t>metodicamente, phds, alcuni, lincados, epatocarcinoma, jfj, estomago, radiografias, ½, 360°, diffuso, links, gotejador, tumori, conseqüência, convincentes, metástases, semanas4, equimoses, poderosíssima, macrobióticos, candidíases, metastasipolmonari, simoncini, è, •, oncologistas, deleto, restringe, charcot, intertítulo, linfomas, colecisti, empiricamente, cirurgias, lavagens, dellintestino, coróide, alla, carcinosi, piccoli, turmores, tanti, sinceramente, mês1, palpebra, pecezinho, enlouquecida, absurdamente, vescica, midollare, oncologista, diretaço, polmoni, polmonari, vezes1, “, tumore, reversões, inalador, peritoneale, abrasões, 5todos, nahco3, sites, adaptabilidade, casi, bronchiale, substancialmente, metodologias, legendado, linfonodos, coliciste, inalações, trattati, subministrar, pediátrica, entopem, cancerígenas, cânceres, 36a, cerebrali, dias3, alcalinizando, prostata, ingerível, cérvico, 90°</t>
+  </si>
+  <si>
+    <t>92ph, 99ph, 132ph, 85ph, 87ph, 156ph, 127ph, 227ph, abençoê</t>
+  </si>
+  <si>
+    <t>simplemente, “, cm2, 16º, refrescante</t>
+  </si>
+  <si>
+    <t>arckle, lobbies, mancy, 30º, adoçante, contaminados, raffaele, entitulado, acidose, dopamina, blaylock, riccio, assintomáticas, zerocal, hj, câimbras</t>
+  </si>
+  <si>
+    <t>possivel</t>
+  </si>
+  <si>
+    <t>lugarquando, cairam</t>
+  </si>
+  <si>
+    <t>oncologista, contêm, madeixasé</t>
+  </si>
+  <si>
+    <t>infectologista</t>
+  </si>
+  <si>
+    <t>vómitos, reage</t>
+  </si>
+  <si>
+    <t>hu, percursso</t>
+  </si>
+  <si>
+    <t>theobromine, “, methylxanthine, theophylline, covid, wenliang, metilxantinas</t>
+  </si>
+  <si>
+    <t>infectologista, nossso, h1n1, famíliares</t>
+  </si>
+  <si>
+    <t>alcalinizam, covid19, comprovadamente, covid</t>
+  </si>
+  <si>
+    <t>infectados, covid</t>
+  </si>
+  <si>
+    <t>conseqüente, fleury, tranqüila, socbrasde, voliteral, “, ambev, skol, almeido, fenofinol</t>
+  </si>
+  <si>
+    <t>conseqüente, fleury, tranqüila, socbrasde, voliteral, “, refrigerantes, almeido, fanta, fenofinol, proprios</t>
+  </si>
+  <si>
+    <t>mícrons, desinfetante, °</t>
+  </si>
+  <si>
+    <t>​​, reconfigurados, covid, microbiota, jfigueiredon, rastreados</t>
+  </si>
+  <si>
+    <t>polifenol, guruprasad, handphone, cancerígenas, reddy, trombose, curativas, osh</t>
+  </si>
+  <si>
+    <t>mirtilos, 5sementes, alforjón, itens, “, amígdalina, laetril, b17, obtêm</t>
+  </si>
+  <si>
+    <t>ugbogulu, directamente, jacto, vestuario, canalizador, hormonais, wahala, desconfortável, acção, bph, encanador, infectada, 60cl, 15mg, “, horin, cancerígenas, atinge, cânceres, 300cl, dey, 50cl, projectada, colega…, canalizacao, afecta, lawma, cancerígenos, crónica, alguém…, reembalar, , boxers, afectará, hesistência, sémen, celibatos, humedecimento, extracto</t>
+  </si>
+  <si>
+    <t>freqüente, 16h, 11h</t>
+  </si>
+  <si>
+    <t>‘, fenilpropalamina, crmsp33006</t>
+  </si>
+  <si>
+    <t>lpki</t>
+  </si>
+  <si>
+    <t>italia, anticoagulantes, covid, trombose, inflamatórios, coronavirus, intravascular</t>
+  </si>
+  <si>
+    <t>monoalcólico, horin, tchen, cancerígenas</t>
+  </si>
+  <si>
+    <t>‘, estabilizantes, libre, superdivertida, ativus, humildemente, sacarovictus, fatiados, contactei, conservantes, cevabacillus, aconchegante</t>
+  </si>
+  <si>
+    <t>desconfortáveis, 50cc, 80cc</t>
+  </si>
+  <si>
+    <t>informaçao, japao, medicos, transmissao, afectados, podera, nao, estao, pergosa, adiquire</t>
+  </si>
+  <si>
+    <t>extraida, “, esculentus, unitriedubr, unicampbr, cientifico</t>
+  </si>
+  <si>
+    <t>infectados, totall, wurhan, globalista, globalistas, rothschilds, lives, rockfellers, começõu, alcool, jinping</t>
+  </si>
+  <si>
+    <t>shenzhen, drsse, puxadores, castello, polmonite, desinfetante, trombose, cardiovasculares, desinfecte, °, cátaros</t>
+  </si>
+  <si>
+    <t>gentilmente, mantêm, indevidamente, ​​e, 19h25, respirações</t>
+  </si>
+  <si>
+    <t>reencaminhado, antioxidantes</t>
+  </si>
+  <si>
+    <t>ademola</t>
+  </si>
+  <si>
+    <t>bakkano, eletromagnetica, irreversível</t>
+  </si>
+  <si>
+    <t>inalador, repatriados</t>
+  </si>
+  <si>
+    <t>genoma, brasileirosuma, —, oncologista, barbuto</t>
+  </si>
+  <si>
+    <t>“, frustrante, covid, mirabolantes, institucionalizado, cirurgias, contêm</t>
+  </si>
+  <si>
+    <t>varella, garganta…</t>
+  </si>
+  <si>
+    <t>27°, 2a, letala, shenzen, dágua, corrimãos</t>
+  </si>
+  <si>
+    <t>“, cancerígenas, cistos, polifenóis, anticâncer, huiren</t>
+  </si>
+  <si>
+    <t>contaminados, naite, opsdigo, 5g</t>
   </si>
   <si>
     <t>honjo, tasuku</t>
   </si>
   <si>
+    <t>“, nissen, coronariana, acc, _temos, dgac, framingham, cardiovasculares, guidelines, corticosteróides, americans</t>
+  </si>
+  <si>
+    <t>covid, eucalyptol, mentolatum, epoxi</t>
+  </si>
+  <si>
+    <t>sudoríparas, repasando, chicungunha, causador</t>
+  </si>
+  <si>
+    <t>conscientemente</t>
+  </si>
+  <si>
+    <t>ricino, letargiaalívio, 4cm, naturista, hidratando, nutrientes, pechotique, massagea</t>
+  </si>
+  <si>
     <t>sem compartilhamento</t>
+  </si>
+  <si>
+    <t>compartilhamento</t>
   </si>
   <si>
     <t>Acurácia: 64.1025641025641%</t>
@@ -517,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,19 +765,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1">
-        <v>0.06538461538461539</v>
+        <v>0.04084507042253521</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G2">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -599,22 +788,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
-        <v>0.08695652173913043</v>
+        <v>0.02090757899738655</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -622,22 +811,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
-        <v>0.01934703748488513</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>0.6410256410256411</v>
+        <v>-1</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
-        <v>0.02880658436213992</v>
+        <v>0.01436781609195402</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G5">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -668,19 +857,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
-        <v>0.02702702702702703</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G6">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -691,19 +880,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
-        <v>0.04166666666666666</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="G7">
-        <v>0.6410256410256411</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -714,22 +903,22 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
-        <v>0.03071017274472169</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G8">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,22 +926,22 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0268041237113402</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G9">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +949,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
-        <v>0.01858736059479554</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G10">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,19 +972,19 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
-        <v>0.02771362586605081</v>
+        <v>0.003273322422258593</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G11">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -806,22 +995,22 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
-        <v>0.03875968992248062</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G12">
-        <v>0.6410256410256411</v>
+        <v>0.98</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,22 +1018,22 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1">
-        <v>0.008912655971479501</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G13">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,22 +1041,22 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
-        <v>0.02981029810298103</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G14">
-        <v>0.6410256410256411</v>
+        <v>0.98</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,19 +1064,19 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1">
-        <v>0.01282051282051282</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G15">
-        <v>0.6410256410256411</v>
+        <v>0.93</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -898,19 +1087,19 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1">
-        <v>0.01403061224489796</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G16">
-        <v>0.6410256410256411</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -921,19 +1110,19 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1">
-        <v>0.006042296072507553</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G17">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -944,22 +1133,22 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1">
-        <v>0.02079395085066163</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G18">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -967,22 +1156,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1">
-        <v>0.01844532279314888</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G19">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -990,19 +1179,19 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
-        <v>0.03070175438596491</v>
+        <v>0.0113421550094518</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="G20">
-        <v>0.6410256410256411</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1013,30 +1202,760 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.01386481802426343</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.01424050632911392</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.02373706634205721</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.015</v>
+      </c>
+      <c r="F24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.02459016393442623</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.003759398496240601</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27">
+        <v>0.99</v>
+      </c>
+      <c r="H27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.03954802259887006</v>
+      </c>
+      <c r="F28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.01769911504424779</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.02771362586605081</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.01477832512315271</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32">
+        <v>-0.68</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.06321839080459771</v>
+      </c>
+      <c r="F35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.01403061224489796</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.01496259351620948</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.006042296072507553</v>
+      </c>
+      <c r="F38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.005813953488372093</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39">
+        <v>0.79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.01016949152542373</v>
+      </c>
+      <c r="F40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1">
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.03125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.03070175438596491</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.015625</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.02898550724637681</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>117</v>
+      </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0223463687150838</v>
+      </c>
+      <c r="F47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1">
         <v>0.00881057268722467</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21">
-        <v>0.6410256410256411</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
+      <c r="F48" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.02022058823529412</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50">
+        <v>-0.97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.05063291139240506</v>
+      </c>
+      <c r="F51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.006134969325153374</v>
+      </c>
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
